--- a/biology/Zoologie/Argus_frêle/Argus_frêle.xlsx
+++ b/biology/Zoologie/Argus_frêle/Argus_frêle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Argus_fr%C3%AAle</t>
+          <t>Argus_frêle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupido minimus
 L’Argus frêle ou Argus minime (Cupido minimus) est une espèce paléarctique de lépidoptères de la famille des Lycaenidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Argus_fr%C3%AAle</t>
+          <t>Argus_frêle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Cupido minimus a été décrite par l'entomologiste suisse Johann Kaspar Füssli en 1775 sous le nom initial de Papilio minimus[1].
-Parmi ses synonymes, on compte[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Cupido minimus a été décrite par l'entomologiste suisse Johann Kaspar Füssli en 1775 sous le nom initial de Papilio minimus.
+Parmi ses synonymes, on compte :
 Papilio puer Schrank, 1801
 Papilio alsus [Denis &amp; Schiffermüller], 1775
-Papilio minutus Esper, 1798
-Sous-espèces
-De nombreuses sous-espèces ont été décrites, parmi lesquelles[1] :
-Cupido minimus trinacriae (Verity, 1919) — en Sicile
-Cupido minimus qilianus (Murayama)</t>
+Papilio minutus Esper, 1798</t>
         </is>
       </c>
     </row>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Argus_fr%C3%AAle</t>
+          <t>Argus_frêle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,91 +557,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De nombreuses sous-espèces ont été décrites, parmi lesquelles :
+Cupido minimus trinacriae (Verity, 1919) — en Sicile
+Cupido minimus qilianus (Murayama)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Argus_frêle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>en français : l'Argus frêle, l'Argus minime, plus rarement la Lycène naine ou le Pygmée[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>en français : l'Argus frêle, l'Argus minime, plus rarement la Lycène naine ou le Pygmée
 en anglais : Small Blue ou Little Blue
 en espagnol : Duende Oscuro
 en allemand : Zwergbläuling</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Argus_fr%C3%AAle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Argus_frêle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imago
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			accouplement
 			œufs de Cupido minimus
 			Chenille
 L'imago de Cupido minimus un très petit papillon au dessus marron avec chez le mâle une suffusion bleue parfois absente.
 Le revers est beige pâle un peu suffusé de bleu et orné de lignes de petits points noirs.
-Espèces ressemblantes
-Les femelles de Cupido osiris sont très ressemblantes, alors que ses mâles ont le dessus bleu.
-L'Azuré murcian et l'Azuré grenadin, également très ressemblants, n'ont pas la même aire de répartition.
-Chenille
-La chenille, petite et trapue, possède une tête rétractile noire et un corps ocre clair avec une bande dorsale foncée et une paire de lignes latérales blanchâtres plus ou moins bordées de rose[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Argus_fr%C3%AAle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une ou deux générations, d'avril à septembre.
-Les chenilles sont soignées par les fourmis en particulier Lasius alienus, Lasius niger, Formica fusca, Formica rufibarbis et Myrmica rubra.
-Il hiverne au stade de chenille mature.
-Plantes-hôtes
-Sa plante-hôte est Anthyllis vulneraria.
 </t>
         </is>
       </c>
@@ -642,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Argus_fr%C3%AAle</t>
+          <t>Argus_frêle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -657,17 +672,244 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Espèces ressemblantes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles de Cupido osiris sont très ressemblantes, alors que ses mâles ont le dessus bleu.
+L'Azuré murcian et l'Azuré grenadin, également très ressemblants, n'ont pas la même aire de répartition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argus_frêle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, petite et trapue, possède une tête rétractile noire et un corps ocre clair avec une bande dorsale foncée et une paire de lignes latérales blanchâtres plus ou moins bordées de rose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Argus_frêle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une ou deux générations, d'avril à septembre.
+Les chenilles sont soignées par les fourmis en particulier Lasius alienus, Lasius niger, Formica fusca, Formica rufibarbis et Myrmica rubra.
+Il hiverne au stade de chenille mature.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Argus_frêle</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante-hôte est Anthyllis vulneraria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Argus_frêle</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans toute l'Europe du nord de l'Espagne et des côtes de l'Irlande, de l'Écosse, et de la Scandinavie jusqu'en Sibérie, Mongolie et la côte du Pacifique[1].
-L’Argus frêle est présent dans presque tous les départements de France métropolitaine, excepté la Corse, le Finistère, les Côtes-d'Armor, la Haute-Vienne, les Landes et le Gers[4].
-Biotope
-Son habitat est constitué de rocailles fleuries jusqu'à 2 500 m.
-Protection
-Pas de statut de protection particulier.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans toute l'Europe du nord de l'Espagne et des côtes de l'Irlande, de l'Écosse, et de la Scandinavie jusqu'en Sibérie, Mongolie et la côte du Pacifique.
+L’Argus frêle est présent dans presque tous les départements de France métropolitaine, excepté la Corse, le Finistère, les Côtes-d'Armor, la Haute-Vienne, les Landes et le Gers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Argus_frêle</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est constitué de rocailles fleuries jusqu'à 2 500 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Argus_frêle</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argus_fr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
